--- a/be/formatFile/end.xlsx
+++ b/be/formatFile/end.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -43,16 +43,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>CT0302021</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Cường</t>
+    <t>AT030123</t>
+  </si>
+  <si>
+    <t>Đặng Nhật Minh</t>
   </si>
   <si>
     <t>CT3B</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AT031130</t>
+  </si>
+  <si>
+    <t>Hoàng Thành Nam</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DT093243</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Anh</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CT089323</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Nga</t>
   </si>
 </sst>
 </file>
@@ -98,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -156,6 +183,84 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/be/formatFile/end.xlsx
+++ b/be/formatFile/end.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -43,43 +43,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>AT030123</t>
-  </si>
-  <si>
-    <t>Đặng Nhật Minh</t>
+    <t>CT06231</t>
+  </si>
+  <si>
+    <t>HOANG VAN TAN</t>
+  </si>
+  <si>
+    <t>CT3C</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CT03023</t>
+  </si>
+  <si>
+    <t>NGUYEN MANH CUONG</t>
   </si>
   <si>
     <t>CT3B</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>AT031130</t>
-  </si>
-  <si>
-    <t>Hoàng Thành Nam</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>DT093243</t>
-  </si>
-  <si>
-    <t>Vũ Ngọc Anh</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CT089323</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Nga</t>
+    <t>Ct0321321</t>
+  </si>
+  <si>
+    <t>VU NGOC ANH</t>
+  </si>
+  <si>
+    <t>CT3A</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -197,7 +194,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>13</v>
@@ -214,16 +211,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>13</v>
@@ -232,32 +229,6 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/be/formatFile/end.xlsx
+++ b/be/formatFile/end.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +43,42 @@
     <t>1</t>
   </si>
   <si>
+    <t>CT03023</t>
+  </si>
+  <si>
+    <t>NGUYEN MANH CUONG</t>
+  </si>
+  <si>
+    <t>CT3B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ct0321321</t>
+  </si>
+  <si>
+    <t>VU NGOC ANH</t>
+  </si>
+  <si>
+    <t>CT3A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CT13221</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN MANH</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>CT06231</t>
   </si>
   <si>
@@ -50,33 +86,6 @@
   </si>
   <si>
     <t>CT3C</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CT03023</t>
-  </si>
-  <si>
-    <t>NGUYEN MANH CUONG</t>
-  </si>
-  <si>
-    <t>CT3B</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Ct0321321</t>
-  </si>
-  <si>
-    <t>VU NGOC ANH</t>
-  </si>
-  <si>
-    <t>CT3A</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -220,15 +229,41 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/be/formatFile/end.xlsx
+++ b/be/formatFile/end.xlsx
@@ -70,22 +70,22 @@
     <t>3</t>
   </si>
   <si>
+    <t>CT06231</t>
+  </si>
+  <si>
+    <t>HOANG VAN TAN</t>
+  </si>
+  <si>
+    <t>CT3C</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>CT13221</t>
   </si>
   <si>
     <t>NGUYEN VAN MANH</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CT06231</t>
-  </si>
-  <si>
-    <t>HOANG VAN TAN</t>
-  </si>
-  <si>
-    <t>CT3C</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>13</v>
@@ -238,7 +238,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -246,16 +246,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>13</v>
@@ -264,7 +264,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
